--- a/GF_X-master/AAAGameData/Languages/German.xlsx
+++ b/GF_X-master/AAAGameData/Languages/German.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>BRAKE</t>
   </si>
@@ -75,6 +75,12 @@
     <t>erhalten</t>
   </si>
   <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Level.DisplayName1</t>
   </si>
   <si>
@@ -210,7 +216,10 @@
     <t>test</t>
   </si>
   <si>
-    <t/>
+    <t>Prüfung</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -343,6 +352,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -1118,6 +1135,338 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1134,10 +1483,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1052">
+            <xdr:cNvPr hidden="1" name="A1" id="1054">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
+                  <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1220,10 +1569,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1053">
+            <xdr:cNvPr hidden="1" name="A2" id="1055">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1306,10 +1655,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1054">
+            <xdr:cNvPr hidden="1" name="A3" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1392,10 +1741,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1055">
+            <xdr:cNvPr hidden="1" name="A4" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1478,10 +1827,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1056">
+            <xdr:cNvPr hidden="1" name="A5" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1564,10 +1913,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1057">
+            <xdr:cNvPr hidden="1" name="A6" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1650,10 +1999,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1058">
+            <xdr:cNvPr hidden="1" name="A7" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1736,10 +2085,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1059">
+            <xdr:cNvPr hidden="1" name="A8" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1822,10 +2171,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1060">
+            <xdr:cNvPr hidden="1" name="A9" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1908,10 +2257,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1061">
+            <xdr:cNvPr hidden="1" name="A10" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1994,10 +2343,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1062">
+            <xdr:cNvPr hidden="1" name="A11" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2080,10 +2429,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1063">
+            <xdr:cNvPr hidden="1" name="A12" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2166,10 +2515,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1064">
+            <xdr:cNvPr hidden="1" name="A13" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2252,10 +2601,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1065">
+            <xdr:cNvPr hidden="1" name="A14" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1065"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2338,10 +2687,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1066">
+            <xdr:cNvPr hidden="1" name="A15" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2424,10 +2773,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1067">
+            <xdr:cNvPr hidden="1" name="A16" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2510,10 +2859,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1068">
+            <xdr:cNvPr hidden="1" name="A17" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2596,10 +2945,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1069">
+            <xdr:cNvPr hidden="1" name="A18" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1069"/>
+                  <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2682,10 +3031,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1070">
+            <xdr:cNvPr hidden="1" name="A19" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1070"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2768,10 +3117,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1071">
+            <xdr:cNvPr hidden="1" name="A20" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
+                  <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2854,10 +3203,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1072">
+            <xdr:cNvPr hidden="1" name="A21" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1072"/>
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2940,10 +3289,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1073">
+            <xdr:cNvPr hidden="1" name="A22" id="1075">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1073"/>
+                  <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3026,10 +3375,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1074">
+            <xdr:cNvPr hidden="1" name="A23" id="1076">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1074"/>
+                  <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3112,10 +3461,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1075">
+            <xdr:cNvPr hidden="1" name="A24" id="1077">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1075"/>
+                  <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3198,10 +3547,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1076">
+            <xdr:cNvPr hidden="1" name="A25" id="1078">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1076"/>
+                  <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3284,10 +3633,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1077">
+            <xdr:cNvPr hidden="1" name="A26" id="1079">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1077"/>
+                  <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3370,10 +3719,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1078">
+            <xdr:cNvPr hidden="1" name="A27" id="1080">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1078"/>
+                  <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3439,12 +3788,184 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3698,6 +4219,24 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3707,7 +4246,7 @@
       <controls xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId184" name="A1">
+            <control shapeId="1054" r:id="rId264" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3729,7 +4268,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId185" name="A2">
+            <control shapeId="1055" r:id="rId265" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3751,7 +4290,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId186" name="A3">
+            <control shapeId="1056" r:id="rId266" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3773,7 +4312,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId187" name="A4">
+            <control shapeId="1057" r:id="rId267" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3795,7 +4334,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId188" name="A5">
+            <control shapeId="1058" r:id="rId268" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3817,7 +4356,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId189" name="A6">
+            <control shapeId="1059" r:id="rId269" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3839,7 +4378,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId190" name="A7">
+            <control shapeId="1060" r:id="rId270" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3861,7 +4400,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId191" name="A8">
+            <control shapeId="1061" r:id="rId271" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3883,7 +4422,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId192" name="A9">
+            <control shapeId="1062" r:id="rId272" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3905,7 +4444,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId193" name="A10">
+            <control shapeId="1063" r:id="rId273" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3927,7 +4466,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId194" name="A11">
+            <control shapeId="1064" r:id="rId274" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3949,7 +4488,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId195" name="A12">
+            <control shapeId="1065" r:id="rId275" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3971,7 +4510,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId196" name="A13">
+            <control shapeId="1066" r:id="rId276" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3993,7 +4532,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId197" name="A14">
+            <control shapeId="1067" r:id="rId277" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4015,7 +4554,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId198" name="A15">
+            <control shapeId="1068" r:id="rId278" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4037,7 +4576,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId199" name="A16">
+            <control shapeId="1069" r:id="rId279" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4059,7 +4598,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId200" name="A17">
+            <control shapeId="1070" r:id="rId280" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4081,7 +4620,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId201" name="A18">
+            <control shapeId="1071" r:id="rId281" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4103,7 +4642,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId202" name="A19">
+            <control shapeId="1072" r:id="rId282" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4125,7 +4664,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId203" name="A20">
+            <control shapeId="1073" r:id="rId283" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4147,7 +4686,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId204" name="A21">
+            <control shapeId="1074" r:id="rId284" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4169,7 +4708,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId205" name="A22">
+            <control shapeId="1075" r:id="rId285" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4191,7 +4730,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId206" name="A23">
+            <control shapeId="1076" r:id="rId286" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4213,7 +4752,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId207" name="A24">
+            <control shapeId="1077" r:id="rId287" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4235,7 +4774,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId208" name="A25">
+            <control shapeId="1078" r:id="rId288" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4257,7 +4796,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId209" name="A26">
+            <control shapeId="1079" r:id="rId289" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4279,7 +4818,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId210" name="A27">
+            <control shapeId="1080" r:id="rId290" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4292,6 +4831,50 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId291" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId292" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
